--- a/results/by_outcome/full_results_income_PGI.xlsx
+++ b/results/by_outcome/full_results_income_PGI.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.933110169163297</v>
+        <v>0.933934515757714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0669599432648449</v>
+        <v>0.0661353206243123</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00007011242814</v>
+        <v>1.00006983638203</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.0669552488697697</v>
+        <v>0.0661307022953231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0638993441499798</v>
+        <v>0.0623069777502883</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0799917598307225</v>
+        <v>0.0807980086899275</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0820605036122099</v>
+        <v>0.0825849676727291</v>
       </c>
       <c r="N2" t="n">
-        <v>0.143891103980702</v>
+        <v>0.143104986440216</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.93104128033716</v>
+        <v>0.932147431980163</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0639038242881548</v>
+        <v>0.0623113290441894</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.851043912089925</v>
+        <v>0.851343780649633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0268778949638324</v>
+        <v>0.026012353861055</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.14901575248198</v>
+        <v>0.148715669968052</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0669552488697697</v>
+        <v>0.0661307022953231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0123470745641874</v>
+        <v>-0.00190399304253661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.121563423175352</v>
+        <v>0.134165397633183</v>
       </c>
       <c r="F2" t="n">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.143891103980702</v>
+        <v>0.143104986440216</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0877676629208923</v>
+        <v>0.081975965764306</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200014545040512</v>
+        <v>0.204234007116126</v>
       </c>
       <c r="F3" t="n">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.14901575248198</v>
+        <v>0.148715669968052</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0837635343566822</v>
+        <v>0.0756297148128868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214267970607277</v>
+        <v>0.221801625123218</v>
       </c>
       <c r="F4" t="n">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_income_PGI.xlsx
+++ b/results/by_outcome/full_results_income_PGI.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.933934515757714</v>
+        <v>0.97278525902507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0661353206243123</v>
+        <v>0.0272435083185367</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00006983638203</v>
+        <v>1.00002876734361</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.0661307022953231</v>
+        <v>0.0272427246177168</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0623069777502883</v>
+        <v>0.0202315568872732</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0807980086899275</v>
+        <v>0.185714405750598</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0825849676727291</v>
+        <v>0.177081635541021</v>
       </c>
       <c r="N2" t="n">
-        <v>0.143104986440216</v>
+        <v>0.205945962637871</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.932147431980163</v>
+        <v>0.981418277576514</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0623113290441894</v>
+        <v>0.0202321388954219</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.851343780649633</v>
+        <v>0.795698529315793</v>
       </c>
       <c r="I4" t="n">
-        <v>0.026012353861055</v>
+        <v>0.00682349204130963</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.148715669968052</v>
+        <v>0.204324360158738</v>
       </c>
     </row>
   </sheetData>
@@ -594,13 +594,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0661307022953231</v>
+        <v>0.0272427246177168</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00190399304253661</v>
+        <v>-0.0208666986712964</v>
       </c>
       <c r="E2" t="n">
-        <v>0.134165397633183</v>
+        <v>0.07535214790673</v>
       </c>
       <c r="F2" t="n">
         <v>948</v>
@@ -614,13 +614,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.143104986440216</v>
+        <v>0.205945962637871</v>
       </c>
       <c r="D3" t="n">
-        <v>0.081975965764306</v>
+        <v>0.157339772481215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.204234007116126</v>
+        <v>0.254552152794528</v>
       </c>
       <c r="F3" t="n">
         <v>948</v>
@@ -634,13 +634,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.148715669968052</v>
+        <v>0.204324360158738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0756297148128868</v>
+        <v>0.158648827976346</v>
       </c>
       <c r="E4" t="n">
-        <v>0.221801625123218</v>
+        <v>0.24999989234113</v>
       </c>
       <c r="F4" t="n">
         <v>948</v>
